--- a/data/am_tram19_name.xlsx
+++ b/data/am_tram19_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A002AD-9094-429E-A544-623A324A01DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76DCEA-8140-45EA-8160-90EB4664B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40965" yWindow="2910" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Diemerbrug</t>
   </si>
   <si>
-    <t>Diemen Sniep</t>
-  </si>
-  <si>
     <t>Admiraal De Ruijterweg</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Eerste Van Swindenstraat</t>
+  </si>
+  <si>
+    <t>Sniep</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
